--- a/investigação/Random forest.xlsx
+++ b/investigação/Random forest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\regressao machine learning git\Diamond_Price_Prediction-Machine_Learning\investigação\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B13FF-C651-418A-920A-1CE3034D47D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,118 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>tratamento</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=8</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=9</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=10</t>
+  </si>
+  <si>
+    <t>transformação em variaveis numericas</t>
+  </si>
+  <si>
+    <t>Score: 0.9734793684380143
+Mean Absolute Error: 353.7561394804649
+Mean Squared Error: 423573.43102844263
+Root Mean Squared Error: 650.8251923738376</t>
+  </si>
+  <si>
+    <t>Score: 0.9672692197137904
+Mean Absolute Error: 397.3606025663585
+Mean Squared Error: 522758.6256256495
+Root Mean Squared Error: 723.0204876942628</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=7</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=6</t>
+  </si>
+  <si>
+    <t>Score: 0.9573128182075511
+Mean Absolute Error: 460.34386403016845
+Mean Squared Error: 681776.978444198
+Root Mean Squared Error: 825.6978735858522</t>
+  </si>
+  <si>
+    <t>Score: 0.9772690303055608
+Mean Absolute Error: 323.05364702477345
+Mean Squared Error: 363046.9659658536
+Root Mean Squared Error: 602.5337882358579</t>
+  </si>
+  <si>
+    <t>Score: 0.9794181363593533
+Mean Absolute Error: 302.48094245808466
+Mean Squared Error: 328722.5863702442
+Root Mean Squared Error: 573.3433407394249</t>
+  </si>
+  <si>
+    <t>Score: 0.9811543825748077
+Mean Absolute Error: 279.31171508551563
+Mean Squared Error: 300992.1846687884
+Root Mean Squared Error: 548.6275463999127</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=5,     
+ max_depth=15</t>
+  </si>
+  <si>
+    <t>overfitting</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=6,     
+ max_depth=8</t>
+  </si>
+  <si>
+    <t>Score: 0.9723597038137207
+Mean Absolute Error: 362.5777633070625
+Mean Squared Error: 441456.1192821046
+Root Mean Squared Error: 664.4216426954382</t>
+  </si>
+  <si>
+    <t>n_estimators=100,   max_features=4,     
+ max_depth=8</t>
+  </si>
+  <si>
+    <t>Score: 0.9721823746812039
+Mean Absolute Error: 363.56521809999214
+Mean Squared Error: 444288.32593245764
+Root Mean Squared Error: 666.5495674985152</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +181,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>682403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543FA8ED-BE67-41D2-D565-4794FD3BA60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324851" y="238125"/>
+          <a:ext cx="971550" cy="634778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>723425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B378C6E3-3FE9-73CF-DF46-9B0547A5580A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1028700"/>
+          <a:ext cx="990600" cy="647225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>755301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940F88D6-30E3-16EF-C0E0-7F52743A57F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="1828800"/>
+          <a:ext cx="981075" cy="641001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>720123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B067C65-687A-DB57-BFA3-38FEF4B4B2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="2543175"/>
+          <a:ext cx="1000125" cy="653448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>728508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFFC04C-C690-C0A3-6F95-6559077A09D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="3257550"/>
+          <a:ext cx="1028700" cy="709458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4A8D7D-E00F-47EF-1F55-E103123F41C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="4095750"/>
+          <a:ext cx="976749" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501662</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3A09DB-C6A7-D4F0-09A2-A985A6071AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="4819650"/>
+          <a:ext cx="1035062" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331A90B9-76F4-C3D3-3B43-390061AC040D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="5638800"/>
+          <a:ext cx="1038225" cy="678341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +802,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/investigação/Random forest.xlsx
+++ b/investigação/Random forest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\regressao machine learning git\Diamond_Price_Prediction-Machine_Learning\investigação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B13FF-C651-418A-920A-1CE3034D47D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EBB91-2831-496C-86E7-9426602E75B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
